--- a/biology/Botanique/Amphiblemma_amoenum/Amphiblemma_amoenum.xlsx
+++ b/biology/Botanique/Amphiblemma_amoenum/Amphiblemma_amoenum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiblemma amoenum est une espèce de plante à fleurs de la famille des Melastomataceae, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma amoenum appartient à la sous-classe des Magnoliidae, à la famille des Melastomataceae et au genre Amphiblemma[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma amoenum appartient à la sous-classe des Magnoliidae, à la famille des Melastomataceae et au genre Amphiblemma
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma amoenum est une plante endémique du Cameroun où on la trouve dans la région du sud-ouest. Son implantation s'étend de la région de Kumba à Mamfé[2]. Elle pousse dans les forêts subtropicales et tropicales humides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma amoenum est une plante endémique du Cameroun où on la trouve dans la région du sud-ouest. Son implantation s'étend de la région de Kumba à Mamfé. Elle pousse dans les forêts subtropicales et tropicales humides.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma amoenum est une plante très localisée et très rare découverte par René Letouzey en 1974-1975[2]. Amphiblemma amoenum est une plante classée Vulnérable et anciennement En danger par l'Union internationale pour la conservation de la nature. Sa disparition est due à la destruction de son habitat à cause de l'extension de l'agriculture et de l'exploitation des bois tropicaux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma amoenum est une plante très localisée et très rare découverte par René Letouzey en 1974-1975. Amphiblemma amoenum est une plante classée Vulnérable et anciennement En danger par l'Union internationale pour la conservation de la nature. Sa disparition est due à la destruction de son habitat à cause de l'extension de l'agriculture et de l'exploitation des bois tropicaux.
 </t>
         </is>
       </c>
